--- a/writable/uploads/transactions/overdrive_reports/Overdrive_SalesDetail_Sep2025.xlsx
+++ b/writable/uploads/transactions/overdrive_reports/Overdrive_SalesDetail_Sep2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adminv4\writable\uploads\transactions\overdrive_reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2175A3-1339-4A80-8A9B-5860D6591E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9EDACF0-30D5-4FAB-91C2-B6D0F981F1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
